--- a/biology/Botanique/Emmanuel_Le_Maout/Emmanuel_Le_Maout.xlsx
+++ b/biology/Botanique/Emmanuel_Le_Maout/Emmanuel_Le_Maout.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean-Emmanuel-Marie Le Maout (Guingamp, 29 décembre 1799 - Paris, 23 juin 1877) est un naturaliste et botaniste français.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il prit, en 1842, le grade de docteur en médecine et, se tournant vers l'étude de l'enseignement des sciences naturelles, fut attaché, comme démonstrateur, à la Faculté de médecine, et ouvrit ensuite des cours particuliers de littérature et d'histoire naturelle. Il a été décoré de la Légion d'honneur le 12 août 1869.
 </t>
